--- a/Daglig logg för gruppen.xlsx
+++ b/Daglig logg för gruppen.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>Etapp 1</t>
   </si>
@@ -188,13 +188,56 @@
   </si>
   <si>
     <t>Vi avslutade projektet</t>
+  </si>
+  <si>
+    <t>Samuel Lundin</t>
+  </si>
+  <si>
+    <t>Gjort upp grunden på projektet till front-end och back-end samt kopplingen emellan. Fixade även databasen med entiteterna</t>
+  </si>
+  <si>
+    <t>Fixade med konto och inloggning till hemsidan.</t>
+  </si>
+  <si>
+    <t>Begränsade endpointsen så att man är tvungen att vara inloggad för att komma åt personlig data.</t>
+  </si>
+  <si>
+    <t>03-feb – 04-feb</t>
+  </si>
+  <si>
+    <t>Jobbat med validering på fälten samt felhanteringen t.ex då användarnamnet redan existerar.</t>
+  </si>
+  <si>
+    <t>Skapat profilsidan och redigera profilsidan.</t>
+  </si>
+  <si>
+    <t>Fixat med sorteringen av categorier och tasks på startsidan.</t>
+  </si>
+  <si>
+    <t>Jobbat lite på designen och fått footern att alltid ligga i botten av sidan</t>
+  </si>
+  <si>
+    <t>02-feb</t>
+  </si>
+  <si>
+    <t>05-feb</t>
+  </si>
+  <si>
+    <t>06-feb</t>
+  </si>
+  <si>
+    <t>07-feb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-41D]General"/>
+    <numFmt numFmtId="165" formatCode="[$-41D]dd\-mmm"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +276,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -242,7 +298,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -265,11 +321,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -305,8 +377,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{8CF9A04C-747E-4043-BD3C-E1E7D4A1059D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -585,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,7 +826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>43131</v>
       </c>
@@ -850,6 +938,94 @@
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>43131</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>43132</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/Daglig logg för gruppen.xlsx
+++ b/Daglig logg för gruppen.xlsx
@@ -77,12 +77,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="D28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Ingemo Ilander:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">skriv nummer på användarhistorien</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
   <si>
     <t xml:space="preserve">Etapp 1</t>
   </si>
@@ -356,7 +382,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -426,10 +452,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -453,8 +475,8 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -806,7 +828,19 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="18" t="s">
+      <c r="A28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -818,7 +852,7 @@
         <v>47</v>
       </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="8" t="s">
         <v>7</v>
       </c>
